--- a/biology/Zoologie/Cheirogaleus/Cheirogaleus.xlsx
+++ b/biology/Zoologie/Cheirogaleus/Cheirogaleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheirogaleus, le Lémur nain, est un genre de primates. Jusqu'en 2000 on distinguait deux espèces. D'après une étude se basant sur des analyses génétiques publiée en 2014 le genre serait en réalité composé de dix-huit espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheirogaleus, le Lémur nain, est un genre de primates. Jusqu'en 2000 on distinguait deux espèces. D'après une étude se basant sur des analyses génétiques publiée en 2014 le genre serait en réalité composé de dix-huit espèces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon MSW:
 Cheirogaleus adipicaudatus
